--- a/System_development/Jocassee/V0.5.1/BIll_Of_Matirials/Water quality V0.5 BOM.xlsx
+++ b/System_development/Jocassee/V0.5.1/BIll_Of_Matirials/Water quality V0.5 BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailsc-my.sharepoint.com/personal/asifuzzaman_sc_edu/Documents/Github Repos/In-Situ-Water-Quality-Sensor/System_development/Jocassee/V0.5.0/BIll_Of_Matirials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailsc-my.sharepoint.com/personal/asifuzzaman_sc_edu/Documents/Github Repos/In-Situ-Water-Quality-Sensor/System_development/Jocassee/V0.5.1/BIll_Of_Matirials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{B25A7C33-3DB6-4E9E-AD5A-98A1F049AD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6055A686-E71C-40F5-B56F-C91EA188945F}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{B25A7C33-3DB6-4E9E-AD5A-98A1F049AD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78F7C8AD-6F93-451E-BD8D-08B18177BF87}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{3F872AE6-6710-4898-8598-9832416C0361}"/>
+    <workbookView xWindow="-105" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{3F872AE6-6710-4898-8598-9832416C0361}"/>
   </bookViews>
   <sheets>
     <sheet name="Electronics BOM" sheetId="1" r:id="rId1"/>
@@ -171,9 +171,6 @@
     <t>11.1V 3300mAH Lipo battery with T connector</t>
   </si>
   <si>
-    <t>https://us.ovonicshop.com/products/2-ovonic-3000mah-3s-50c-lipo-battery-11-1v-long-with-t-plug-for-aircraft?variant=49495640736024&amp;country=US&amp;currency=USD&amp;utm_medium=product_sync&amp;utm_source=google&amp;utm_content=sag_organic&amp;utm_campaign=sag_organic&amp;gad_source=1&amp;gad_campaignid=22231059484&amp;gbraid=0AAAAADH9voLksvZtdQfP_qv6g9D5uP4vz&amp;gclid=Cj0KCQjwmK_CBhCEARIsAMKwcD7wVC7linJpS4qPBFEeagS1am8YjtEL9eHuExf6EBj_sSKmwI5S25AaAmK1EALw_wcB</t>
-  </si>
-  <si>
     <t>https://www.ebay.com/itm/184508325888?chn=ps&amp;_trkparms=ispr%3D1&amp;amdata=enc%3A1ylpS771GTUqS6YST7-apLg15&amp;norover=1&amp;mkevt=1&amp;mkrid=711-117182-37290-0&amp;mkcid=2&amp;mkscid=101&amp;itemid=184508325888&amp;targetid=2321110924221&amp;device=c&amp;mktype=pla&amp;googleloc=9010433&amp;poi=&amp;campaignid=21400684010&amp;mkgroupid=173029508068&amp;rlsatarget=aud-1317046432738:pla-2321110924221&amp;abcId=9448486&amp;merchantid=118955226&amp;gad_source=1&amp;gad_campaignid=21400684010&amp;gbraid=0AAAAAD_QDh99tBHCSfvM5L2BJj0mpS-rS&amp;gclid=Cj0KCQjwmK_CBhCEARIsAMKwcD7LhNJPcz_yB99-iNQOigF1uTLSpT72VMRZDt4bpaZcj-4-2mtZYDUaAlYNEALw_wcB</t>
   </si>
   <si>
@@ -328,6 +325,9 @@
   </si>
   <si>
     <t>https://www.grainger.com/product/PC-PRODUCTS-Epoxy-Adhesive-PC-11-4AUV9?opr=ODOH&amp;analytics=FM:Order%20History</t>
+  </si>
+  <si>
+    <t>https://us.ovonicshop.com/products/2-x-ovonic-3s-lipo-battery-50c-3000mah-11-1v-with-dean-connector-lipo-voltage-checker-for-rc-airplane-helicopter-quad-scale-warplanes-edf-jets-1?variant=49890237251864&amp;country=US&amp;currency=USD&amp;utm_medium=product_sync&amp;utm_source=google&amp;utm_content=sag_organic&amp;utm_campaign=sag_organic&amp;gad_source=1&amp;gad_campaignid=22231059484&amp;gbraid=0AAAAADH9voLwMopBnW-r6HOezBD7eTcFR&amp;gclid=CjwKCAjw4efDBhATEiwAaDBpbonDIO4x4u8hv87f6jSHsDDcHeGmhu4Jubc4KqzGOlkZvQy4jcynkRoCQzkQAvD_BwE</t>
   </si>
 </sst>
 </file>
@@ -1354,7 +1354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FF72E9-9057-43B3-9849-7848ED564DB8}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -1660,13 +1660,13 @@
         <v>46.72</v>
       </c>
       <c r="F13" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="H13" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="58" x14ac:dyDescent="0.35">
@@ -1674,7 +1674,7 @@
         <v>40</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="8">
         <v>1</v>
@@ -1686,7 +1686,7 @@
         <v>26.11</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -1696,7 +1696,7 @@
         <v>40</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="8">
         <v>1</v>
@@ -1708,10 +1708,10 @@
         <v>9.9</v>
       </c>
       <c r="F15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="H15" s="10"/>
     </row>
@@ -1720,7 +1720,7 @@
         <v>40</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="8">
         <v>1</v>
@@ -1732,10 +1732,10 @@
         <v>49.99</v>
       </c>
       <c r="F16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="H16" s="10"/>
     </row>
@@ -1744,7 +1744,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="8">
         <v>1</v>
@@ -1756,10 +1756,10 @@
         <v>19.95</v>
       </c>
       <c r="F17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="H17" s="10"/>
     </row>
@@ -1768,7 +1768,7 @@
         <v>40</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="8">
         <v>1</v>
@@ -1780,10 +1780,10 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="F18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="H18" s="10"/>
     </row>
@@ -1792,7 +1792,7 @@
         <v>40</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="8">
         <v>1</v>
@@ -1804,10 +1804,10 @@
         <v>1.25</v>
       </c>
       <c r="F19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="H19" s="10"/>
     </row>
@@ -1816,7 +1816,7 @@
         <v>40</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="8">
         <v>2</v>
@@ -1828,7 +1828,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -1838,7 +1838,7 @@
         <v>40</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="8">
         <v>1</v>
@@ -1850,7 +1850,7 @@
         <v>8</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -1859,7 +1859,7 @@
       <c r="A22" s="12"/>
       <c r="C22" s="9"/>
       <c r="D22" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="14">
         <f>SUM(E3:E21)</f>
@@ -1894,14 +1894,14 @@
     <hyperlink ref="G15" r:id="rId21" xr:uid="{6C5CD10F-CC8B-41D0-AFD8-4F3D53674579}"/>
     <hyperlink ref="G16" r:id="rId22" xr:uid="{7CCAC606-6D69-4384-A632-81B17260CDA3}"/>
     <hyperlink ref="G17" r:id="rId23" xr:uid="{4C6031E9-5DB5-420D-A786-DB2505BC5E3F}"/>
-    <hyperlink ref="F13" r:id="rId24" display="https://us.ovonicshop.com/products/2-ovonic-3000mah-3s-50c-lipo-battery-11-1v-long-with-t-plug-for-aircraft?variant=49495640736024&amp;country=US&amp;currency=USD&amp;utm_medium=product_sync&amp;utm_source=google&amp;utm_content=sag_organic&amp;utm_campaign=sag_organic&amp;gad_source=1&amp;gad_campaignid=22231059484&amp;gbraid=0AAAAADH9voLksvZtdQfP_qv6g9D5uP4vz&amp;gclid=Cj0KCQjwmK_CBhCEARIsAMKwcD7wVC7linJpS4qPBFEeagS1am8YjtEL9eHuExf6EBj_sSKmwI5S25AaAmK1EALw_wcB" xr:uid="{92AF7484-CF48-43A5-87AC-D1D1E4726FFC}"/>
-    <hyperlink ref="G13" r:id="rId25" display="https://www.ebay.com/itm/184508325888?chn=ps&amp;_trkparms=ispr%3D1&amp;amdata=enc%3A1ylpS771GTUqS6YST7-apLg15&amp;norover=1&amp;mkevt=1&amp;mkrid=711-117182-37290-0&amp;mkcid=2&amp;mkscid=101&amp;itemid=184508325888&amp;targetid=2321110924221&amp;device=c&amp;mktype=pla&amp;googleloc=9010433&amp;poi=&amp;campaignid=21400684010&amp;mkgroupid=173029508068&amp;rlsatarget=aud-1317046432738:pla-2321110924221&amp;abcId=9448486&amp;merchantid=118955226&amp;gad_source=1&amp;gad_campaignid=21400684010&amp;gbraid=0AAAAAD_QDh99tBHCSfvM5L2BJj0mpS-rS&amp;gclid=Cj0KCQjwmK_CBhCEARIsAMKwcD7LhNJPcz_yB99-iNQOigF1uTLSpT72VMRZDt4bpaZcj-4-2mtZYDUaAlYNEALw_wcB" xr:uid="{3CB92383-C82A-4483-8BB2-4316CC09D92E}"/>
-    <hyperlink ref="H13" r:id="rId26" display="https://www.motionrc.com/products/admiral-3300mah-3s-11-1v-30c-lipo-battery-with-t-connector-epr33003?variant=19047011142&amp;country=US&amp;currency=USD&amp;utm_medium=product_sync&amp;utm_source=google&amp;utm_content=sag_organic&amp;utm_campaign=sag_organic&amp;gad_source=1&amp;gad_campaignid=15448361688&amp;gbraid=0AAAAADrr98ZD1fBrj_NSKbi2hqFZgUrfk&amp;gclid=Cj0KCQjwgvnCBhCqARIsADBLZoIjaMcUy2YxUOv0QnymhbqBDrWMvbmN8Xkj10xanB3EhIRIsKdz-QAaAkkxEALw_wcB" xr:uid="{33A0557F-BAF8-45FF-A06A-9B35F82DC323}"/>
-    <hyperlink ref="G3" r:id="rId27" display="https://www.mouser.com/ProductDetail/CK/OS102011MS2QN1?qs=WtljUlYws5RvQ1hEv876nQ%3D%3D&amp;mgh=1&amp;utm_id=22174357374&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_marketing_tactic=amercorp&amp;gad_source=1&amp;gad_campaignid=22295195434&amp;gbraid=0AAAAADn_wf37NcPripZZCoy9AiD-OvAcG&amp;gclid=Cj0KCQjwgvnCBhCqARIsADBLZoKyGA5ClHUZR7eCJ8ET8sUhF8oXtsBAC19VweIc1X0k5wSmKxZJZCcaAhNFEALw_wcB " xr:uid="{925E73F0-7493-4F10-B879-D8FE7A9712D3}"/>
-    <hyperlink ref="H3" r:id="rId28" xr:uid="{9966B871-4776-420A-8EA7-07123C5518BF}"/>
-    <hyperlink ref="G7" r:id="rId29" display="https://www.mouser.com/ProductDetail/Analog-Devices-Maxim-Integrated/DS3231M+TRL?qs=Bakm8ERcljq5PBzSwLfmgg%3D%3D&amp;utm_id=22337522785&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_marketing_tactic=amercorp&amp;gad_source=1&amp;gad_campaignid=22327353774&amp;gbraid=0AAAAADn_wf3tXOv7c9Y4wq2-Yvx_HD5I2&amp;gclid=Cj0KCQjwgvnCBhCqARIsADBLZoJwmYFO86Wu0iC_hUhm8R9ynjb29I-YIssyZ4USDWwZGmZXPXlNSLQaAlaREALw_wcB" xr:uid="{CBA3015C-15AD-4E96-9E48-B76639C15CC9}"/>
-    <hyperlink ref="G18" r:id="rId30" xr:uid="{D9663DC4-76A3-45BB-9383-32E9FD3E3482}"/>
-    <hyperlink ref="G19" r:id="rId31" xr:uid="{05851BE9-43B5-4810-BCBB-114F8BF3D559}"/>
+    <hyperlink ref="G13" r:id="rId24" display="https://www.ebay.com/itm/184508325888?chn=ps&amp;_trkparms=ispr%3D1&amp;amdata=enc%3A1ylpS771GTUqS6YST7-apLg15&amp;norover=1&amp;mkevt=1&amp;mkrid=711-117182-37290-0&amp;mkcid=2&amp;mkscid=101&amp;itemid=184508325888&amp;targetid=2321110924221&amp;device=c&amp;mktype=pla&amp;googleloc=9010433&amp;poi=&amp;campaignid=21400684010&amp;mkgroupid=173029508068&amp;rlsatarget=aud-1317046432738:pla-2321110924221&amp;abcId=9448486&amp;merchantid=118955226&amp;gad_source=1&amp;gad_campaignid=21400684010&amp;gbraid=0AAAAAD_QDh99tBHCSfvM5L2BJj0mpS-rS&amp;gclid=Cj0KCQjwmK_CBhCEARIsAMKwcD7LhNJPcz_yB99-iNQOigF1uTLSpT72VMRZDt4bpaZcj-4-2mtZYDUaAlYNEALw_wcB" xr:uid="{3CB92383-C82A-4483-8BB2-4316CC09D92E}"/>
+    <hyperlink ref="H13" r:id="rId25" display="https://www.motionrc.com/products/admiral-3300mah-3s-11-1v-30c-lipo-battery-with-t-connector-epr33003?variant=19047011142&amp;country=US&amp;currency=USD&amp;utm_medium=product_sync&amp;utm_source=google&amp;utm_content=sag_organic&amp;utm_campaign=sag_organic&amp;gad_source=1&amp;gad_campaignid=15448361688&amp;gbraid=0AAAAADrr98ZD1fBrj_NSKbi2hqFZgUrfk&amp;gclid=Cj0KCQjwgvnCBhCqARIsADBLZoIjaMcUy2YxUOv0QnymhbqBDrWMvbmN8Xkj10xanB3EhIRIsKdz-QAaAkkxEALw_wcB" xr:uid="{33A0557F-BAF8-45FF-A06A-9B35F82DC323}"/>
+    <hyperlink ref="G3" r:id="rId26" display="https://www.mouser.com/ProductDetail/CK/OS102011MS2QN1?qs=WtljUlYws5RvQ1hEv876nQ%3D%3D&amp;mgh=1&amp;utm_id=22174357374&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_marketing_tactic=amercorp&amp;gad_source=1&amp;gad_campaignid=22295195434&amp;gbraid=0AAAAADn_wf37NcPripZZCoy9AiD-OvAcG&amp;gclid=Cj0KCQjwgvnCBhCqARIsADBLZoKyGA5ClHUZR7eCJ8ET8sUhF8oXtsBAC19VweIc1X0k5wSmKxZJZCcaAhNFEALw_wcB " xr:uid="{925E73F0-7493-4F10-B879-D8FE7A9712D3}"/>
+    <hyperlink ref="H3" r:id="rId27" xr:uid="{9966B871-4776-420A-8EA7-07123C5518BF}"/>
+    <hyperlink ref="G7" r:id="rId28" display="https://www.mouser.com/ProductDetail/Analog-Devices-Maxim-Integrated/DS3231M+TRL?qs=Bakm8ERcljq5PBzSwLfmgg%3D%3D&amp;utm_id=22337522785&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_marketing_tactic=amercorp&amp;gad_source=1&amp;gad_campaignid=22327353774&amp;gbraid=0AAAAADn_wf3tXOv7c9Y4wq2-Yvx_HD5I2&amp;gclid=Cj0KCQjwgvnCBhCqARIsADBLZoJwmYFO86Wu0iC_hUhm8R9ynjb29I-YIssyZ4USDWwZGmZXPXlNSLQaAlaREALw_wcB" xr:uid="{CBA3015C-15AD-4E96-9E48-B76639C15CC9}"/>
+    <hyperlink ref="G18" r:id="rId29" xr:uid="{D9663DC4-76A3-45BB-9383-32E9FD3E3482}"/>
+    <hyperlink ref="G19" r:id="rId30" xr:uid="{05851BE9-43B5-4810-BCBB-114F8BF3D559}"/>
+    <hyperlink ref="F13" r:id="rId31" display="https://us.ovonicshop.com/products/2-x-ovonic-3s-lipo-battery-50c-3000mah-11-1v-with-dean-connector-lipo-voltage-checker-for-rc-airplane-helicopter-quad-scale-warplanes-edf-jets-1?variant=49890237251864&amp;country=US&amp;currency=USD&amp;utm_medium=product_sync&amp;utm_source=google&amp;utm_content=sag_organic&amp;utm_campaign=sag_organic&amp;gad_source=1&amp;gad_campaignid=22231059484&amp;gbraid=0AAAAADH9voLwMopBnW-r6HOezBD7eTcFR&amp;gclid=CjwKCAjw4efDBhATEiwAaDBpbonDIO4x4u8hv87f6jSHsDDcHeGmhu4Jubc4KqzGOlkZvQy4jcynkRoCQzkQAvD_BwE" xr:uid="{2454F352-C766-4624-9E97-CC016F1E1D56}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId32"/>
@@ -1912,7 +1912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC825CFC-606A-4EB1-BF18-3BEFDFC7363F}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
+    <sheetView topLeftCell="E7" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -1928,30 +1928,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>74</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="19">
         <v>1</v>
@@ -1963,19 +1963,19 @@
         <v>19.559999999999999</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>79</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>80</v>
       </c>
       <c r="C3" s="19">
         <v>69.69</v>
@@ -1984,14 +1984,14 @@
         <v>7.26</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="19">
         <v>1</v>
@@ -2003,18 +2003,18 @@
         <v>1.47</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="19">
         <v>12</v>
@@ -2026,14 +2026,14 @@
         <v>13.56</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="19">
         <v>4</v>
@@ -2045,14 +2045,14 @@
         <v>3.4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="19">
         <v>4</v>
@@ -2064,17 +2064,17 @@
         <v>0.52</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="23">
         <v>47.86</v>
@@ -2083,13 +2083,13 @@
         <v>47.86</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">

--- a/System_development/Jocassee/V0.5.1/BIll_Of_Matirials/Water quality V0.5 BOM.xlsx
+++ b/System_development/Jocassee/V0.5.1/BIll_Of_Matirials/Water quality V0.5 BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailsc-my.sharepoint.com/personal/asifuzzaman_sc_edu/Documents/Github Repos/In-Situ-Water-Quality-Sensor/System_development/Jocassee/V0.5.1/BIll_Of_Matirials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{B25A7C33-3DB6-4E9E-AD5A-98A1F049AD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78F7C8AD-6F93-451E-BD8D-08B18177BF87}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{B25A7C33-3DB6-4E9E-AD5A-98A1F049AD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EC04276-8A36-4241-8DCE-09F2CDB730B4}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{3F872AE6-6710-4898-8598-9832416C0361}"/>
+    <workbookView xWindow="-105" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3F872AE6-6710-4898-8598-9832416C0361}"/>
   </bookViews>
   <sheets>
     <sheet name="Electronics BOM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
   <si>
     <t>PCB Reference</t>
   </si>
@@ -328,6 +328,15 @@
   </si>
   <si>
     <t>https://us.ovonicshop.com/products/2-x-ovonic-3s-lipo-battery-50c-3000mah-11-1v-with-dean-connector-lipo-voltage-checker-for-rc-airplane-helicopter-quad-scale-warplanes-edf-jets-1?variant=49890237251864&amp;country=US&amp;currency=USD&amp;utm_medium=product_sync&amp;utm_source=google&amp;utm_content=sag_organic&amp;utm_campaign=sag_organic&amp;gad_source=1&amp;gad_campaignid=22231059484&amp;gbraid=0AAAAADH9voLwMopBnW-r6HOezBD7eTcFR&amp;gclid=CjwKCAjw4efDBhATEiwAaDBpbonDIO4x4u8hv87f6jSHsDDcHeGmhu4Jubc4KqzGOlkZvQy4jcynkRoCQzkQAvD_BwE</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/295005028017</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/326491279997</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/Hex-Nut-M3-0-50-Thread-4AGJ9?opr=ODOH</t>
   </si>
 </sst>
 </file>
@@ -1354,7 +1363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FF72E9-9057-43B3-9849-7848ED564DB8}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -1912,8 +1921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC825CFC-606A-4EB1-BF18-3BEFDFC7363F}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2028,7 +2037,9 @@
       <c r="E5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.35">
@@ -2047,7 +2058,9 @@
       <c r="E6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.35">
@@ -2066,7 +2079,9 @@
       <c r="E7" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="246.5" x14ac:dyDescent="0.35">
@@ -2112,6 +2127,9 @@
     <hyperlink ref="E5" r:id="rId8" xr:uid="{03FCB859-3800-41E6-9021-5F1B4C24708F}"/>
     <hyperlink ref="E7" r:id="rId9" display="https://www.digikey.com/en/products/detail/keystone-electronics/4688/4499297?gad_source=1&amp;gad_campaignid=20228387720&amp;gbraid=0AAAAADrbLli1VgbFKUuvpIzwSoUwJlAei&amp;gclid=CjwKCAjwg7PDBhBxEiwAf1CVu7QKEee0JU-K02l5MqVnceC0gdderHe-hLzMdyz4TeR0D3XMq-DznhoC-KUQAvD_BwE&amp;gclsrc=aw.ds" xr:uid="{CDD084B5-EDFE-4046-A768-16EF004917C4}"/>
     <hyperlink ref="G8" r:id="rId10" xr:uid="{C523ED55-EE5F-4281-9F71-7C5211F06C71}"/>
+    <hyperlink ref="F6" r:id="rId11" xr:uid="{6C0F9D1D-DEF4-4911-B37D-E1543C801121}"/>
+    <hyperlink ref="F5" r:id="rId12" xr:uid="{E01B910B-91B6-416D-8301-76657210DE38}"/>
+    <hyperlink ref="F7" r:id="rId13" xr:uid="{82093993-6D6E-408B-B1AF-5A4CD73A2B39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_development/Jocassee/V0.5.1/BIll_Of_Matirials/Water quality V0.5 BOM.xlsx
+++ b/System_development/Jocassee/V0.5.1/BIll_Of_Matirials/Water quality V0.5 BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailsc-my.sharepoint.com/personal/asifuzzaman_sc_edu/Documents/Github Repos/In-Situ-Water-Quality-Sensor/System_development/Jocassee/V0.5.1/BIll_Of_Matirials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{B25A7C33-3DB6-4E9E-AD5A-98A1F049AD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EC04276-8A36-4241-8DCE-09F2CDB730B4}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{B25A7C33-3DB6-4E9E-AD5A-98A1F049AD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{282D8C01-6B06-4372-8E2E-C8E692517121}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3F872AE6-6710-4898-8598-9832416C0361}"/>
+    <workbookView xWindow="-105" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{3F872AE6-6710-4898-8598-9832416C0361}"/>
   </bookViews>
   <sheets>
     <sheet name="Electronics BOM" sheetId="1" r:id="rId1"/>
@@ -168,9 +168,6 @@
     <t>https://www.digikey.com/en/products/detail/jauch-quartz/CR1025/16399048</t>
   </si>
   <si>
-    <t>11.1V 3300mAH Lipo battery with T connector</t>
-  </si>
-  <si>
     <t>https://www.ebay.com/itm/184508325888?chn=ps&amp;_trkparms=ispr%3D1&amp;amdata=enc%3A1ylpS771GTUqS6YST7-apLg15&amp;norover=1&amp;mkevt=1&amp;mkrid=711-117182-37290-0&amp;mkcid=2&amp;mkscid=101&amp;itemid=184508325888&amp;targetid=2321110924221&amp;device=c&amp;mktype=pla&amp;googleloc=9010433&amp;poi=&amp;campaignid=21400684010&amp;mkgroupid=173029508068&amp;rlsatarget=aud-1317046432738:pla-2321110924221&amp;abcId=9448486&amp;merchantid=118955226&amp;gad_source=1&amp;gad_campaignid=21400684010&amp;gbraid=0AAAAAD_QDh99tBHCSfvM5L2BJj0mpS-rS&amp;gclid=Cj0KCQjwmK_CBhCEARIsAMKwcD7LhNJPcz_yB99-iNQOigF1uTLSpT72VMRZDt4bpaZcj-4-2mtZYDUaAlYNEALw_wcB</t>
   </si>
   <si>
@@ -327,9 +324,6 @@
     <t>https://www.grainger.com/product/PC-PRODUCTS-Epoxy-Adhesive-PC-11-4AUV9?opr=ODOH&amp;analytics=FM:Order%20History</t>
   </si>
   <si>
-    <t>https://us.ovonicshop.com/products/2-x-ovonic-3s-lipo-battery-50c-3000mah-11-1v-with-dean-connector-lipo-voltage-checker-for-rc-airplane-helicopter-quad-scale-warplanes-edf-jets-1?variant=49890237251864&amp;country=US&amp;currency=USD&amp;utm_medium=product_sync&amp;utm_source=google&amp;utm_content=sag_organic&amp;utm_campaign=sag_organic&amp;gad_source=1&amp;gad_campaignid=22231059484&amp;gbraid=0AAAAADH9voLwMopBnW-r6HOezBD7eTcFR&amp;gclid=CjwKCAjw4efDBhATEiwAaDBpbonDIO4x4u8hv87f6jSHsDDcHeGmhu4Jubc4KqzGOlkZvQy4jcynkRoCQzkQAvD_BwE</t>
-  </si>
-  <si>
     <t>https://www.ebay.com/itm/295005028017</t>
   </si>
   <si>
@@ -337,6 +331,12 @@
   </si>
   <si>
     <t>https://www.grainger.com/product/Hex-Nut-M3-0-50-Thread-4AGJ9?opr=ODOH</t>
+  </si>
+  <si>
+    <t>https://us.ovonicshop.com/products/ovonic-50c-11-1v-3000mah-3s1p-deans-2pcs?_pos=7&amp;_sid=207a99678&amp;_ss=r</t>
+  </si>
+  <si>
+    <t>11.1V 3000mAH Lipo battery with T connector</t>
   </si>
 </sst>
 </file>
@@ -1363,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FF72E9-9057-43B3-9849-7848ED564DB8}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1657,7 +1657,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="C13" s="8">
         <v>1</v>
@@ -1669,13 +1669,13 @@
         <v>46.72</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="58" x14ac:dyDescent="0.35">
@@ -1683,7 +1683,7 @@
         <v>40</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="8">
         <v>1</v>
@@ -1695,7 +1695,7 @@
         <v>26.11</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -1705,7 +1705,7 @@
         <v>40</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="8">
         <v>1</v>
@@ -1717,10 +1717,10 @@
         <v>9.9</v>
       </c>
       <c r="F15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>50</v>
       </c>
       <c r="H15" s="10"/>
     </row>
@@ -1729,7 +1729,7 @@
         <v>40</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="8">
         <v>1</v>
@@ -1741,10 +1741,10 @@
         <v>49.99</v>
       </c>
       <c r="F16" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>53</v>
       </c>
       <c r="H16" s="10"/>
     </row>
@@ -1753,7 +1753,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="8">
         <v>1</v>
@@ -1765,10 +1765,10 @@
         <v>19.95</v>
       </c>
       <c r="F17" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="H17" s="10"/>
     </row>
@@ -1777,7 +1777,7 @@
         <v>40</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="8">
         <v>1</v>
@@ -1789,10 +1789,10 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="F18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="H18" s="10"/>
     </row>
@@ -1801,7 +1801,7 @@
         <v>40</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="8">
         <v>1</v>
@@ -1813,10 +1813,10 @@
         <v>1.25</v>
       </c>
       <c r="F19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>62</v>
       </c>
       <c r="H19" s="10"/>
     </row>
@@ -1825,7 +1825,7 @@
         <v>40</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="8">
         <v>2</v>
@@ -1837,7 +1837,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -1847,7 +1847,7 @@
         <v>40</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="8">
         <v>1</v>
@@ -1859,7 +1859,7 @@
         <v>8</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -1868,7 +1868,7 @@
       <c r="A22" s="12"/>
       <c r="C22" s="9"/>
       <c r="D22" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" s="14">
         <f>SUM(E3:E21)</f>
@@ -1910,7 +1910,7 @@
     <hyperlink ref="G7" r:id="rId28" display="https://www.mouser.com/ProductDetail/Analog-Devices-Maxim-Integrated/DS3231M+TRL?qs=Bakm8ERcljq5PBzSwLfmgg%3D%3D&amp;utm_id=22337522785&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_marketing_tactic=amercorp&amp;gad_source=1&amp;gad_campaignid=22327353774&amp;gbraid=0AAAAADn_wf3tXOv7c9Y4wq2-Yvx_HD5I2&amp;gclid=Cj0KCQjwgvnCBhCqARIsADBLZoJwmYFO86Wu0iC_hUhm8R9ynjb29I-YIssyZ4USDWwZGmZXPXlNSLQaAlaREALw_wcB" xr:uid="{CBA3015C-15AD-4E96-9E48-B76639C15CC9}"/>
     <hyperlink ref="G18" r:id="rId29" xr:uid="{D9663DC4-76A3-45BB-9383-32E9FD3E3482}"/>
     <hyperlink ref="G19" r:id="rId30" xr:uid="{05851BE9-43B5-4810-BCBB-114F8BF3D559}"/>
-    <hyperlink ref="F13" r:id="rId31" display="https://us.ovonicshop.com/products/2-x-ovonic-3s-lipo-battery-50c-3000mah-11-1v-with-dean-connector-lipo-voltage-checker-for-rc-airplane-helicopter-quad-scale-warplanes-edf-jets-1?variant=49890237251864&amp;country=US&amp;currency=USD&amp;utm_medium=product_sync&amp;utm_source=google&amp;utm_content=sag_organic&amp;utm_campaign=sag_organic&amp;gad_source=1&amp;gad_campaignid=22231059484&amp;gbraid=0AAAAADH9voLwMopBnW-r6HOezBD7eTcFR&amp;gclid=CjwKCAjw4efDBhATEiwAaDBpbonDIO4x4u8hv87f6jSHsDDcHeGmhu4Jubc4KqzGOlkZvQy4jcynkRoCQzkQAvD_BwE" xr:uid="{2454F352-C766-4624-9E97-CC016F1E1D56}"/>
+    <hyperlink ref="F13" r:id="rId31" xr:uid="{1805C191-986C-4725-B6EA-091F14DE101B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId32"/>
@@ -1921,7 +1921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC825CFC-606A-4EB1-BF18-3BEFDFC7363F}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1937,30 +1937,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>73</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="19">
         <v>1</v>
@@ -1972,19 +1972,19 @@
         <v>19.559999999999999</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>78</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>79</v>
       </c>
       <c r="C3" s="19">
         <v>69.69</v>
@@ -1993,14 +1993,14 @@
         <v>7.26</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="19">
         <v>1</v>
@@ -2012,18 +2012,18 @@
         <v>1.47</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="19">
         <v>12</v>
@@ -2035,16 +2035,16 @@
         <v>13.56</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="19">
         <v>4</v>
@@ -2056,16 +2056,16 @@
         <v>3.4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="19">
         <v>4</v>
@@ -2077,19 +2077,19 @@
         <v>0.52</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="23">
         <v>47.86</v>
@@ -2098,13 +2098,13 @@
         <v>47.86</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
